--- a/Template Word Documents/Test Output Data.xlsx
+++ b/Template Word Documents/Test Output Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="55">
   <si>
     <t>Farm Name</t>
   </si>
@@ -513,7 +513,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD39"/>
@@ -1311,6 +1311,34 @@
         <v>54</v>
       </c>
     </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>43424.571840277778</v>
+      </c>
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="2">
+        <v>43424</v>
+      </c>
+      <c r="D57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>43424.571840277778</v>
+      </c>
+      <c r="B58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
